--- a/resources/test.xlsx
+++ b/resources/test.xlsx
@@ -164,7 +164,8 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <f>SUM(Sheet3!D2:D4)</f>
+        <v>600</v>
       </c>
       <c t="s" r="C2">
         <v>4</v>
@@ -175,7 +176,8 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>345</v>
+        <f>SUM(Sheet3!D5:D6)</f>
+        <v>900</v>
       </c>
       <c t="s" r="C3">
         <v>6</v>

--- a/resources/test.xlsx
+++ b/resources/test.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="5880" yWindow="2980" windowWidth="33540" windowHeight="19280" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId5"/>
+    <sheet name="test.json" sheetId="1" r:id="rId1"/>
+    <sheet name="test.json#traits" sheetId="2" r:id="rId2"/>
+    <sheet name="test.json#properties" sheetId="3" r:id="rId3"/>
+    <sheet name="Source" sheetId="4" r:id="rId4"/>
+    <sheet name="foo.json" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +58,9 @@
     <t>property_c.qux</t>
   </si>
   <si>
+    <t>property_c.baz</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -85,19 +98,78 @@
   </si>
   <si>
     <t>baz_5</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>unlockLevel</t>
+  </si>
+  <si>
+    <t>buyCoins</t>
+  </si>
+  <si>
+    <t>growingTime</t>
+  </si>
+  <si>
+    <t>cropAmount</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+  <si>
+    <t>instantCompleteHc</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>blackberry</t>
+  </si>
+  <si>
+    <t>broccoli</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>rhubarb</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>artichoke</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>baz</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>qux</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -107,9 +179,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -122,260 +192,913 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="9" borderId="0" fontId="0" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="4" borderId="0" fontId="0" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" r="B1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet3!D2:D4)</f>
+        <f>SUM('test.json#properties'!D2:D4)</f>
         <v>600</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet3!D5:D6)</f>
+        <f>SUM('test.json#properties'!D5:D6)</f>
         <v>900</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" r="B1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2">
-      <c t="s" r="A2">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
         <v>11</v>
       </c>
-      <c s="2" r="D2">
-        <v>9</v>
-      </c>
-      <c s="1" r="E2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" r="A3">
+      <c r="F2" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c t="s" r="C3">
-        <v>12</v>
-      </c>
-      <c s="2" r="D3">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
         <v>8</v>
       </c>
-      <c s="1" r="E3">
+      <c r="E3" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="4">
-      <c t="s" r="A4">
+      <c r="F3" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c t="s" r="C4">
-        <v>13</v>
-      </c>
-      <c s="2" r="D4">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c s="1" r="E4">
+      <c r="E4" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="5">
-      <c t="s" r="A5">
+      <c r="F4" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c t="s" r="C5">
-        <v>14</v>
-      </c>
-      <c s="2" r="D5">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c s="1" r="E5">
+      <c r="E5" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="6">
-      <c t="s" r="A6">
+      <c r="F5" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c t="s" r="C6">
-        <v>15</v>
-      </c>
-      <c s="2" r="D6">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c s="1" r="E6">
+      <c r="E6" s="2">
         <v>55</v>
       </c>
+      <c r="F6" s="2">
+        <v>0.85</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" r="B1">
-        <v>16</v>
-      </c>
-      <c t="s" r="C1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="D1">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2">
-      <c t="s" r="A2">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="C2">
-        <v>19</v>
+      <c r="C2" t="s">
+        <v>20</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="C3">
-        <v>20</v>
+      <c r="C3" t="s">
+        <v>21</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="C4">
-        <v>21</v>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
       <c r="D4">
         <v>300</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="C5">
-        <v>22</v>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
       <c r="D5">
         <v>400</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="C6">
-        <v>23</v>
+      <c r="C6" t="s">
+        <v>24</v>
       </c>
       <c r="D6">
         <v>500</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>2.7</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1.8</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>3.6</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>7.2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>5.4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>7.2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <v>14.4</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>160</v>
+      </c>
+      <c r="D9">
+        <v>21.6</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/resources/test.xlsx
+++ b/resources/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="2980" windowWidth="33540" windowHeight="19280" tabRatio="500"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -37,13 +37,7 @@
     <t>foo</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>bar</t>
-  </si>
-  <si>
-    <t>def</t>
   </si>
   <si>
     <t>traits</t>
@@ -540,7 +534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -563,20 +559,22 @@
         <f>SUM('test.json#properties'!D2:D4)</f>
         <v>600</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <f>SUM('test.json#properties'!D5:D6)</f>
         <v>900</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -602,19 +600,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
@@ -625,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>9</v>
@@ -645,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>8</v>
@@ -665,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
         <v>7</v>
@@ -679,13 +677,13 @@
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>6</v>
@@ -699,13 +697,13 @@
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -731,7 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -765,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>400</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>500</v>
@@ -824,25 +824,25 @@
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="8" spans="1:20" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="9" spans="1:20" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -1062,35 +1062,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test.xlsx
+++ b/resources/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2980" windowWidth="33540" windowHeight="19280" tabRatio="500"/>
+    <workbookView xWindow="5880" yWindow="2980" windowWidth="33540" windowHeight="19280" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="test.json" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="test.json#properties" sheetId="3" r:id="rId3"/>
     <sheet name="Source" sheetId="4" r:id="rId4"/>
     <sheet name="foo.json" sheetId="5" r:id="rId5"/>
+    <sheet name="bar.json@" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +156,30 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>ignored</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>foo.baz</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>foo.bar</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>array@</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
@@ -188,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -201,6 +226,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1101,4 +1127,64 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>